--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1620862.281286175</v>
+        <v>-1623532.276841137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377149</v>
+        <v>9823063.766377145</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>369.0685238739793</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815062</v>
+        <v>351.6075739815063</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311816</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827605</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2107279522101</v>
+        <v>393.2107279522102</v>
       </c>
       <c r="G11" t="n">
-        <v>113.5584804640912</v>
+        <v>397.2564078639522</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978191</v>
+        <v>280.9424465978192</v>
       </c>
       <c r="I11" t="n">
-        <v>27.9116119834246</v>
+        <v>27.91161198342471</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867448</v>
+        <v>95.52244399867458</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501188</v>
+        <v>190.2526523501189</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>98.49516704843302</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.0869406806336</v>
       </c>
       <c r="W11" t="n">
         <v>335.5756509279117</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889677</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>372.5726208665523</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.9884606451154</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091265</v>
+        <v>153.5815033091266</v>
       </c>
       <c r="D13" t="n">
-        <v>134.950155228711</v>
+        <v>134.9501552287111</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.7686448570679</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>152.3604904695269</v>
+        <v>152.360490469527</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248194</v>
+        <v>131.0896971248195</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033673</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054597</v>
+        <v>75.26683488054607</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1037075419405</v>
+        <v>176.1037075419406</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>205.8836314866679</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>131.8809674688045</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343266</v>
+        <v>238.4723255343267</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470897</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>212.0443375995358</v>
+        <v>212.0443375995359</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625934</v>
+        <v>204.9193355625935</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.9503986972988</v>
+        <v>251.0597666710958</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815062</v>
+        <v>351.6075739815063</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>341.0177238311817</v>
       </c>
       <c r="E14" t="n">
         <v>368.2650522827605</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522101</v>
+        <v>393.2107279522102</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639521</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.9424465978192</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342459</v>
+        <v>27.91161198342471</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.2526523501189</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>335.5756509279117</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889677</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>372.5726208665523</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>166.166662392436</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091265</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.11490215397675</v>
+        <v>134.9501552287111</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3604904695269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248194</v>
+        <v>131.0896971248195</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.68710262033684</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054597</v>
+        <v>75.26683488054607</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419405</v>
+        <v>176.1037075419406</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8836314866678</v>
+        <v>205.8836314866679</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161115</v>
+        <v>272.5465204161116</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343266</v>
+        <v>238.4723255343267</v>
       </c>
       <c r="W16" t="n">
-        <v>272.8576805470897</v>
+        <v>49.19132067564158</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995358</v>
+        <v>212.0443375995359</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.9193355625935</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008195</v>
+        <v>48.54730738008199</v>
       </c>
       <c r="T17" t="n">
-        <v>104.4662072972748</v>
+        <v>143.2775157315263</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508081</v>
+        <v>151.5434091165608</v>
       </c>
       <c r="V17" t="n">
         <v>267.111804062041</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>119.1915257738434</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6063666905339</v>
+        <v>106.606366690534</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011847</v>
+        <v>87.97501861011848</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847528</v>
+        <v>85.7935082384753</v>
       </c>
       <c r="F19" t="n">
-        <v>84.78059361483736</v>
+        <v>84.78059361483737</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509344</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622689</v>
+        <v>84.11456050622691</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174421</v>
+        <v>35.71196600174424</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.29169826195344</v>
+        <v>28.29169826195347</v>
       </c>
       <c r="S19" t="n">
         <v>129.128570923348</v>
@@ -2087,7 +2087,7 @@
         <v>294.0425872125891</v>
       </c>
       <c r="E20" t="n">
-        <v>321.2899156641679</v>
+        <v>282.4786072299211</v>
       </c>
       <c r="F20" t="n">
         <v>346.2355913336175</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.735998945830948</v>
+        <v>48.54730738008199</v>
       </c>
       <c r="T20" t="n">
         <v>143.2775157315263</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>119.1915257738434</v>
       </c>
       <c r="C22" t="n">
-        <v>106.6063666905339</v>
+        <v>106.606366690534</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011847</v>
+        <v>87.97501861011848</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847528</v>
+        <v>85.7935082384753</v>
       </c>
       <c r="F22" t="n">
-        <v>84.78059361483736</v>
+        <v>84.78059361483737</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509344</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622689</v>
+        <v>84.11456050622691</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174421</v>
+        <v>35.71196600174424</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.29169826195344</v>
+        <v>28.29169826195347</v>
       </c>
       <c r="S22" t="n">
         <v>129.128570923348</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.54730738008195</v>
+        <v>48.54730738008199</v>
       </c>
       <c r="T23" t="n">
         <v>143.2775157315263</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>119.1915257738434</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6063666905339</v>
+        <v>106.606366690534</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011847</v>
+        <v>87.97501861011848</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847528</v>
+        <v>85.7935082384753</v>
       </c>
       <c r="F25" t="n">
-        <v>84.78059361483736</v>
+        <v>84.78059361483737</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509344</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622689</v>
+        <v>84.11456050622691</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174421</v>
+        <v>35.71196600174424</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.29169826195344</v>
+        <v>28.29169826195347</v>
       </c>
       <c r="S25" t="n">
         <v>129.128570923348</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124706</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,19 +3029,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1961.980416526116</v>
+        <v>1532.096730956338</v>
       </c>
       <c r="C11" t="n">
-        <v>1606.821250888231</v>
+        <v>1176.937565318452</v>
       </c>
       <c r="D11" t="n">
-        <v>1262.358903584007</v>
+        <v>1176.937565318452</v>
       </c>
       <c r="E11" t="n">
-        <v>890.3740022882894</v>
+        <v>1176.937565318452</v>
       </c>
       <c r="F11" t="n">
-        <v>493.1914488012087</v>
+        <v>779.7550118313716</v>
       </c>
       <c r="G11" t="n">
-        <v>378.4859129788943</v>
+        <v>378.4859129788944</v>
       </c>
       <c r="H11" t="n">
-        <v>94.70566389018808</v>
+        <v>94.70566389018815</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3229.118504438793</v>
+        <v>3229.118504438791</v>
       </c>
       <c r="T11" t="n">
-        <v>3036.944108125542</v>
+        <v>3036.94410812554</v>
       </c>
       <c r="U11" t="n">
-        <v>3036.944108125542</v>
+        <v>2937.45404039985</v>
       </c>
       <c r="V11" t="n">
-        <v>3036.944108125542</v>
+        <v>2620.194504358806</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.978804157954</v>
+        <v>2281.229200391218</v>
       </c>
       <c r="X11" t="n">
-        <v>2338.316397199401</v>
+        <v>2281.229200391218</v>
       </c>
       <c r="Y11" t="n">
-        <v>1961.980416526116</v>
+        <v>1904.893219717933</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.7938828488709</v>
+        <v>778.3812992496098</v>
       </c>
       <c r="C13" t="n">
-        <v>572.6610512234906</v>
+        <v>623.2484676242294</v>
       </c>
       <c r="D13" t="n">
-        <v>436.3477631136815</v>
+        <v>486.9351795144203</v>
       </c>
       <c r="E13" t="n">
-        <v>436.3477631136815</v>
+        <v>352.8254372345536</v>
       </c>
       <c r="F13" t="n">
-        <v>436.3477631136815</v>
+        <v>352.8254372345536</v>
       </c>
       <c r="G13" t="n">
-        <v>282.448277790927</v>
+        <v>198.9259519117991</v>
       </c>
       <c r="H13" t="n">
-        <v>150.0344423113115</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>125.1634134907252</v>
       </c>
       <c r="K13" t="n">
-        <v>342.679261051208</v>
+        <v>342.6792610512077</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113104</v>
+        <v>672.76772411131</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322466</v>
+        <v>1030.453434322465</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639937</v>
+        <v>1385.390475639936</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171957</v>
+        <v>1698.248739171956</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217222</v>
+        <v>1944.384904217221</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981343</v>
+        <v>2035.523864981342</v>
       </c>
       <c r="R13" t="n">
-        <v>1959.496759041398</v>
+        <v>1959.496759041397</v>
       </c>
       <c r="S13" t="n">
-        <v>1781.614226170751</v>
+        <v>1781.61422617075</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.614226170751</v>
+        <v>1573.650962042802</v>
       </c>
       <c r="U13" t="n">
-        <v>1781.614226170751</v>
+        <v>1440.437863589465</v>
       </c>
       <c r="V13" t="n">
-        <v>1540.733089267391</v>
+        <v>1199.556726686104</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.119270532957</v>
+        <v>1199.556726686104</v>
       </c>
       <c r="X13" t="n">
-        <v>1050.933070937466</v>
+        <v>985.3705270906133</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.9438430964623</v>
+        <v>778.3812992496098</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1620.301383163349</v>
+        <v>1847.274880703802</v>
       </c>
       <c r="C14" t="n">
-        <v>1265.142217525464</v>
+        <v>1492.115715065917</v>
       </c>
       <c r="D14" t="n">
-        <v>1265.142217525464</v>
+        <v>1147.653367761693</v>
       </c>
       <c r="E14" t="n">
-        <v>893.1573162297459</v>
+        <v>775.6684664659755</v>
       </c>
       <c r="F14" t="n">
-        <v>495.974762742665</v>
+        <v>378.4859129788944</v>
       </c>
       <c r="G14" t="n">
-        <v>94.70566389018806</v>
+        <v>378.4859129788944</v>
       </c>
       <c r="H14" t="n">
-        <v>94.70566389018806</v>
+        <v>94.70566389018815</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.431425295918</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.431425295918</v>
       </c>
       <c r="V14" t="n">
-        <v>3008.346285568126</v>
+        <v>2816.171889254874</v>
       </c>
       <c r="W14" t="n">
-        <v>2669.380981600539</v>
+        <v>2477.206585287286</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.718574641985</v>
+        <v>2477.206585287286</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.382593968701</v>
+        <v>2100.870604614</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>567.6702912376879</v>
+        <v>418.7615659007364</v>
       </c>
       <c r="C16" t="n">
-        <v>412.5374596123077</v>
+        <v>418.7615659007364</v>
       </c>
       <c r="D16" t="n">
-        <v>352.8254372345534</v>
+        <v>282.4482777909272</v>
       </c>
       <c r="E16" t="n">
-        <v>352.8254372345534</v>
+        <v>282.4482777909272</v>
       </c>
       <c r="F16" t="n">
-        <v>352.8254372345534</v>
+        <v>282.4482777909272</v>
       </c>
       <c r="G16" t="n">
-        <v>198.925951911799</v>
+        <v>282.4482777909272</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>150.0344423113115</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1634134907253</v>
+        <v>125.1634134907252</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512081</v>
+        <v>342.6792610512078</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113106</v>
+        <v>672.7677241113101</v>
       </c>
       <c r="M16" t="n">
-        <v>1030.453434322466</v>
+        <v>1030.453434322465</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639937</v>
+        <v>1385.390475639936</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171957</v>
+        <v>1698.248739171956</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.384904217222</v>
+        <v>1944.384904217221</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981343</v>
+        <v>2035.523864981342</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041398</v>
+        <v>1959.496759041397</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.614226170751</v>
+        <v>1781.61422617075</v>
       </c>
       <c r="T16" t="n">
-        <v>1573.650962042803</v>
+        <v>1573.650962042802</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.351446470974</v>
+        <v>1298.351446470972</v>
       </c>
       <c r="V16" t="n">
-        <v>1057.470309567613</v>
+        <v>1057.470309567612</v>
       </c>
       <c r="W16" t="n">
-        <v>781.8564908331795</v>
+        <v>1007.782106864944</v>
       </c>
       <c r="X16" t="n">
-        <v>567.6702912376879</v>
+        <v>793.5959072694531</v>
       </c>
       <c r="Y16" t="n">
-        <v>567.6702912376879</v>
+        <v>586.6066794284495</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5495,55 @@
         <v>1637.834019325586</v>
       </c>
       <c r="D17" t="n">
-        <v>1340.821304969435</v>
+        <v>1340.821304969436</v>
       </c>
       <c r="E17" t="n">
         <v>1016.286036621791</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827836</v>
+        <v>666.5531160827838</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783802</v>
+        <v>312.7336501783803</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="J17" t="n">
         <v>432.6878140171258</v>
       </c>
       <c r="K17" t="n">
-        <v>766.5071877069722</v>
+        <v>1083.756501359255</v>
       </c>
       <c r="L17" t="n">
-        <v>1217.541400955381</v>
+        <v>1534.790714607663</v>
       </c>
       <c r="M17" t="n">
-        <v>1751.073305627306</v>
+        <v>2068.322619279587</v>
       </c>
       <c r="N17" t="n">
-        <v>2297.852122686088</v>
+        <v>2615.10143633837</v>
       </c>
       <c r="O17" t="n">
-        <v>2842.822810790143</v>
+        <v>3118.073907217707</v>
       </c>
       <c r="P17" t="n">
-        <v>3237.597177147321</v>
+        <v>3512.848273574884</v>
       </c>
       <c r="Q17" t="n">
-        <v>3696.075379656309</v>
+        <v>3761.134635330567</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.151701887364</v>
+        <v>3820.151701887369</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.114017665059</v>
+        <v>3771.114017665064</v>
       </c>
       <c r="T17" t="n">
-        <v>3665.59259615266</v>
+        <v>3626.389254299886</v>
       </c>
       <c r="U17" t="n">
         <v>3473.315103677097</v>
@@ -5552,10 +5552,10 @@
         <v>3203.505200584126</v>
       </c>
       <c r="W17" t="n">
-        <v>2911.989529564611</v>
+        <v>2911.989529564612</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.776755554131</v>
+        <v>2599.776755554132</v>
       </c>
       <c r="Y17" t="n">
         <v>2270.89040782892</v>
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4347720866722</v>
+        <v>951.4347720866715</v>
       </c>
       <c r="C18" t="n">
-        <v>776.9817428055452</v>
+        <v>776.9817428055445</v>
       </c>
       <c r="D18" t="n">
-        <v>628.047333144294</v>
+        <v>628.0473331442932</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8098781388385</v>
+        <v>468.8098781388377</v>
       </c>
       <c r="F18" t="n">
-        <v>322.2753201657235</v>
+        <v>322.2753201657227</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983422</v>
+        <v>185.9122199983408</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620971</v>
+        <v>95.41032563620836</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="J18" t="n">
-        <v>170.0803035283645</v>
+        <v>170.0803035283647</v>
       </c>
       <c r="K18" t="n">
         <v>408.3445025087117</v>
       </c>
       <c r="L18" t="n">
-        <v>775.0426628213771</v>
+        <v>775.042662821377</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.842031598148</v>
+        <v>1695.842031598147</v>
       </c>
       <c r="O18" t="n">
         <v>2106.803311016202</v>
       </c>
       <c r="P18" t="n">
-        <v>2417.302902492305</v>
+        <v>2417.302902492304</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.944460138905</v>
+        <v>2574.944460138904</v>
       </c>
       <c r="R18" t="n">
-        <v>2574.80010673142</v>
+        <v>2574.800106731419</v>
       </c>
       <c r="S18" t="n">
-        <v>2445.3622202249</v>
+        <v>2445.362220224899</v>
       </c>
       <c r="T18" t="n">
-        <v>2252.719219902756</v>
+        <v>2252.719219902755</v>
       </c>
       <c r="U18" t="n">
         <v>2024.651373037171</v>
       </c>
       <c r="V18" t="n">
-        <v>1789.499264805429</v>
+        <v>1789.499264805428</v>
       </c>
       <c r="W18" t="n">
-        <v>1535.261908077227</v>
+        <v>1535.261908077226</v>
       </c>
       <c r="X18" t="n">
-        <v>1327.410407871694</v>
+        <v>1327.410407871693</v>
       </c>
       <c r="Y18" t="n">
         <v>1119.65010910674</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.733708293172</v>
+        <v>672.7337082931723</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158649</v>
+        <v>565.0505096158653</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541292</v>
+        <v>476.1868544541294</v>
       </c>
       <c r="E19" t="n">
-        <v>389.526745122336</v>
+        <v>389.5267451223362</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750255</v>
+        <v>303.8897818750257</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003444</v>
+        <v>197.4399295003445</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688021</v>
+        <v>112.4757269688022</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="J19" t="n">
         <v>121.5256664846829</v>
       </c>
       <c r="K19" t="n">
-        <v>325.5128494335593</v>
+        <v>356.6342108843612</v>
       </c>
       <c r="L19" t="n">
-        <v>642.0726478820554</v>
+        <v>673.1940093328573</v>
       </c>
       <c r="M19" t="n">
-        <v>986.2296934816045</v>
+        <v>1017.351054932406</v>
       </c>
       <c r="N19" t="n">
-        <v>1327.638070187469</v>
+        <v>1418.793481502284</v>
       </c>
       <c r="O19" t="n">
-        <v>1687.001718971896</v>
+        <v>1778.15713028671</v>
       </c>
       <c r="P19" t="n">
-        <v>1979.643269269568</v>
+        <v>2010.764630720369</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872883</v>
+        <v>2088.374926872884</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.797453881011</v>
+        <v>2059.797453881012</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.364553958437</v>
+        <v>1929.364553958438</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778563</v>
+        <v>1768.850922778564</v>
       </c>
       <c r="U19" t="n">
         <v>1541.001040154807</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.56953619952</v>
+        <v>1347.569536199521</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.405350413159</v>
+        <v>1119.40535041316</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657419</v>
+        <v>952.6687837657423</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728117</v>
+        <v>793.1291888728122</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1945.543552015399</v>
+        <v>1906.340210162624</v>
       </c>
       <c r="C20" t="n">
-        <v>1637.834019325587</v>
+        <v>1598.630677472812</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.821304969436</v>
+        <v>1301.617963116661</v>
       </c>
       <c r="E20" t="n">
         <v>1016.286036621792</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827844</v>
+        <v>666.5531160827841</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783802</v>
+        <v>312.7336501783803</v>
       </c>
       <c r="H20" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="I20" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="J20" t="n">
         <v>432.6878140171258</v>
@@ -5759,43 +5759,43 @@
         <v>1217.541400955381</v>
       </c>
       <c r="M20" t="n">
-        <v>1751.073305627306</v>
+        <v>1751.073305627305</v>
       </c>
       <c r="N20" t="n">
         <v>2297.852122686088</v>
       </c>
       <c r="O20" t="n">
-        <v>2800.824593565425</v>
+        <v>2800.824593565424</v>
       </c>
       <c r="P20" t="n">
-        <v>3512.848273574879</v>
+        <v>3237.597177147326</v>
       </c>
       <c r="Q20" t="n">
-        <v>3761.134635330562</v>
+        <v>3696.075379656314</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.151701887364</v>
+        <v>3820.151701887369</v>
       </c>
       <c r="S20" t="n">
-        <v>3810.317359517839</v>
+        <v>3771.114017665064</v>
       </c>
       <c r="T20" t="n">
-        <v>3665.592596152661</v>
+        <v>3626.389254299886</v>
       </c>
       <c r="U20" t="n">
-        <v>3473.315103677097</v>
+        <v>3434.111761824322</v>
       </c>
       <c r="V20" t="n">
-        <v>3203.505200584127</v>
+        <v>3164.301858731352</v>
       </c>
       <c r="W20" t="n">
-        <v>2911.989529564612</v>
+        <v>2872.786187711838</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.776755554132</v>
+        <v>2560.573413701358</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.890407828921</v>
+        <v>2231.687065976146</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4347720866724</v>
+        <v>951.4347720866715</v>
       </c>
       <c r="C21" t="n">
-        <v>776.9817428055454</v>
+        <v>776.9817428055445</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0473331442942</v>
+        <v>628.0473331442932</v>
       </c>
       <c r="E21" t="n">
-        <v>468.8098781388387</v>
+        <v>468.8098781388377</v>
       </c>
       <c r="F21" t="n">
-        <v>322.2753201657237</v>
+        <v>322.2753201657227</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9122199983418</v>
+        <v>185.9122199983408</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620928</v>
+        <v>95.41032563620836</v>
       </c>
       <c r="I21" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="J21" t="n">
-        <v>170.0803035283646</v>
+        <v>170.0803035283647</v>
       </c>
       <c r="K21" t="n">
-        <v>408.3445025087118</v>
+        <v>408.3445025087117</v>
       </c>
       <c r="L21" t="n">
-        <v>775.0426628213772</v>
+        <v>775.042662821377</v>
       </c>
       <c r="M21" t="n">
         <v>1222.318988043693</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.842031598148</v>
+        <v>1695.842031598147</v>
       </c>
       <c r="O21" t="n">
         <v>2106.803311016202</v>
       </c>
       <c r="P21" t="n">
-        <v>2417.302902492305</v>
+        <v>2417.302902492304</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.944460138905</v>
+        <v>2574.944460138904</v>
       </c>
       <c r="R21" t="n">
-        <v>2574.80010673142</v>
+        <v>2574.800106731419</v>
       </c>
       <c r="S21" t="n">
-        <v>2445.3622202249</v>
+        <v>2445.362220224899</v>
       </c>
       <c r="T21" t="n">
-        <v>2252.719219902756</v>
+        <v>2252.719219902755</v>
       </c>
       <c r="U21" t="n">
         <v>2024.651373037171</v>
       </c>
       <c r="V21" t="n">
-        <v>1789.499264805429</v>
+        <v>1789.499264805428</v>
       </c>
       <c r="W21" t="n">
-        <v>1535.261908077227</v>
+        <v>1535.261908077226</v>
       </c>
       <c r="X21" t="n">
-        <v>1327.410407871694</v>
+        <v>1327.410407871693</v>
       </c>
       <c r="Y21" t="n">
-        <v>1119.650109106741</v>
+        <v>1119.65010910674</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.733708293172</v>
+        <v>672.7337082931723</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158649</v>
+        <v>565.0505096158653</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541292</v>
+        <v>476.1868544541294</v>
       </c>
       <c r="E22" t="n">
-        <v>389.526745122336</v>
+        <v>389.5267451223362</v>
       </c>
       <c r="F22" t="n">
-        <v>303.8897818750255</v>
+        <v>303.8897818750257</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4399295003444</v>
+        <v>197.4399295003445</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688021</v>
+        <v>112.4757269688022</v>
       </c>
       <c r="I22" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774739</v>
       </c>
       <c r="J22" t="n">
         <v>121.5256664846829</v>
       </c>
       <c r="K22" t="n">
-        <v>356.6342108843601</v>
+        <v>325.5128494335593</v>
       </c>
       <c r="L22" t="n">
-        <v>673.1940093328562</v>
+        <v>673.1940093328574</v>
       </c>
       <c r="M22" t="n">
-        <v>1017.351054932405</v>
+        <v>1077.385104796419</v>
       </c>
       <c r="N22" t="n">
-        <v>1418.793481502283</v>
+        <v>1418.793481502284</v>
       </c>
       <c r="O22" t="n">
-        <v>1718.123080422696</v>
+        <v>1778.15713028671</v>
       </c>
       <c r="P22" t="n">
         <v>2010.764630720369</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872883</v>
+        <v>2088.374926872884</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.797453881011</v>
+        <v>2059.797453881012</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.364553958437</v>
+        <v>1929.364553958438</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778563</v>
+        <v>1768.850922778564</v>
       </c>
       <c r="U22" t="n">
         <v>1541.001040154807</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.56953619952</v>
+        <v>1347.569536199521</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.405350413159</v>
+        <v>1119.40535041316</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657419</v>
+        <v>952.6687837657423</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1291888728117</v>
+        <v>793.1291888728122</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1946.343620216475</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526664</v>
+        <v>1638.634087526663</v>
       </c>
       <c r="D23" t="n">
         <v>1341.621373170513</v>
@@ -5987,28 +5987,28 @@
         <v>77.20310223882441</v>
       </c>
       <c r="J23" t="n">
-        <v>266.0822331978499</v>
+        <v>266.0822331978498</v>
       </c>
       <c r="K23" t="n">
-        <v>599.9016068876963</v>
+        <v>599.9016068876962</v>
       </c>
       <c r="L23" t="n">
         <v>1050.935820136105</v>
       </c>
       <c r="M23" t="n">
-        <v>2006.324210341557</v>
+        <v>1584.467724808029</v>
       </c>
       <c r="N23" t="n">
-        <v>2553.10302740034</v>
+        <v>2131.246541866811</v>
       </c>
       <c r="O23" t="n">
-        <v>3056.075498279677</v>
+        <v>2634.219012746148</v>
       </c>
       <c r="P23" t="n">
-        <v>3450.849864636855</v>
+        <v>3342.65984287543</v>
       </c>
       <c r="Q23" t="n">
-        <v>3736.078789710165</v>
+        <v>3801.138045384418</v>
       </c>
       <c r="R23" t="n">
         <v>3860.155111941221</v>
@@ -6017,7 +6017,7 @@
         <v>3811.117427718916</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353737</v>
+        <v>3666.392664353738</v>
       </c>
       <c r="U23" t="n">
         <v>3474.115171878174</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877495</v>
+        <v>952.2348402877485</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066225</v>
+        <v>777.7818110066215</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453713</v>
+        <v>628.8474013453703</v>
       </c>
       <c r="E24" t="n">
-        <v>469.6099463399158</v>
+        <v>469.6099463399148</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668008</v>
+        <v>323.0753883667998</v>
       </c>
       <c r="G24" t="n">
-        <v>186.7122881994189</v>
+        <v>186.7122881994179</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728646</v>
+        <v>96.21039383728537</v>
       </c>
       <c r="I24" t="n">
         <v>77.20310223882441</v>
@@ -6069,49 +6069,49 @@
         <v>170.8803717294417</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1445707097889</v>
+        <v>409.1445707097888</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8427310224542</v>
+        <v>775.842731022454</v>
       </c>
       <c r="M24" t="n">
         <v>1223.11905624477</v>
       </c>
       <c r="N24" t="n">
-        <v>1696.642099799225</v>
+        <v>1696.642099799224</v>
       </c>
       <c r="O24" t="n">
         <v>2107.603379217279</v>
       </c>
       <c r="P24" t="n">
-        <v>2418.102970693382</v>
+        <v>2418.102970693381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2575.744528339982</v>
+        <v>2575.744528339981</v>
       </c>
       <c r="R24" t="n">
-        <v>2575.600174932497</v>
+        <v>2575.600174932496</v>
       </c>
       <c r="S24" t="n">
-        <v>2446.162288425977</v>
+        <v>2446.162288425976</v>
       </c>
       <c r="T24" t="n">
-        <v>2253.519288103833</v>
+        <v>2253.519288103832</v>
       </c>
       <c r="U24" t="n">
         <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
-        <v>1790.299333006506</v>
+        <v>1790.299333006505</v>
       </c>
       <c r="W24" t="n">
-        <v>1536.061976278304</v>
+        <v>1536.061976278303</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072771</v>
+        <v>1328.21047607277</v>
       </c>
       <c r="Y24" t="n">
-        <v>1120.450177307818</v>
+        <v>1120.450177307817</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.5337764942492</v>
+        <v>673.5337764942493</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169422</v>
+        <v>565.8505778169423</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9869226552063</v>
+        <v>476.9869226552065</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3268133234131</v>
+        <v>390.3268133234132</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6898500761026</v>
+        <v>304.6898500761027</v>
       </c>
       <c r="G25" t="n">
         <v>198.2399977014215</v>
@@ -6145,19 +6145,19 @@
         <v>77.20310223882441</v>
       </c>
       <c r="J25" t="n">
-        <v>122.32573468576</v>
+        <v>153.4470961365617</v>
       </c>
       <c r="K25" t="n">
-        <v>326.3129176346364</v>
+        <v>357.434279085438</v>
       </c>
       <c r="L25" t="n">
-        <v>642.8727160831324</v>
+        <v>673.9940775339342</v>
       </c>
       <c r="M25" t="n">
-        <v>1047.063811546695</v>
+        <v>1078.185172997496</v>
       </c>
       <c r="N25" t="n">
-        <v>1448.506238116572</v>
+        <v>1479.627599567374</v>
       </c>
       <c r="O25" t="n">
         <v>1778.957198487787</v>
@@ -6181,16 +6181,16 @@
         <v>1541.801108355884</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.369604400597</v>
+        <v>1348.369604400598</v>
       </c>
       <c r="W25" t="n">
         <v>1120.205418614237</v>
       </c>
       <c r="X25" t="n">
-        <v>953.4688519668191</v>
+        <v>953.4688519668193</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9292570738889</v>
+        <v>793.9292570738892</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P26" t="n">
         <v>3474.791320094415</v>
@@ -6248,7 +6248,7 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6257,19 +6257,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6309,13 +6309,13 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>792.1780824632697</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1243.212295711679</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1776.744200383603</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.523017442385</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321722</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P29" t="n">
         <v>3539.850575768668</v>
@@ -6485,7 +6485,7 @@
         <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6601,34 +6601,34 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302721</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6652,13 +6652,13 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697162</v>
@@ -6689,58 +6689,58 @@
         <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>887.9771891384792</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1339.011402386888</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.208754682581</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.181225561918</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3477.955591919096</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3936.433794428084</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257046</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302708</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6889,19 +6889,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1711.594658697163</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,40 +6935,40 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>1045.699547878785</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127194</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799118</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.044482857901</v>
+        <v>2852.29557928546</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737238</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T35" t="n">
         <v>3835.976694641923</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468335</v>
@@ -7014,13 +7014,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668918</v>
@@ -7099,19 +7099,19 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7175,22 +7175,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>810.872990474187</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1261.907203722596</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603403</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913836</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415465</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,16 +7330,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7366,16 +7366,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
@@ -7400,7 +7400,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7567,25 +7567,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,25 +7646,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991704</v>
       </c>
       <c r="K44" t="n">
-        <v>937.3106675423214</v>
+        <v>727.1188267890168</v>
       </c>
       <c r="L44" t="n">
-        <v>1388.34488079073</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M44" t="n">
-        <v>1921.876785462655</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N44" t="n">
-        <v>2468.655602521437</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O44" t="n">
-        <v>2971.628073400774</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
@@ -7679,16 +7679,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7725,13 +7725,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,16 +7804,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519666</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>320.4538521740226</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>42.42244164112913</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>320.4538521740165</v>
+        <v>42.42244164113492</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>426.1176621550784</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>316.8348118910147</v>
       </c>
       <c r="Q23" t="n">
-        <v>37.31572052285688</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>190.2350110279885</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>187.888306628307</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>287.0017854473921</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>62.52018570663873</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>277.2206841544149</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>274.8351763665447</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>40.02214132148788</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>277.2206841544134</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550059</v>
       </c>
       <c r="K44" t="n">
-        <v>167.7369666428357</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739792</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>341.0177238311817</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>368.2650522827605</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.6979273998609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694006</v>
+        <v>138.8346871209677</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806336</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>356.0657828889678</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.17820174732059</v>
+        <v>166.166662392436</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570678</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7557302334299</v>
+        <v>131.75573023343</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>82.68710262033684</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>205.8836314866678</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161115</v>
+        <v>140.6655529473071</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.8576805470897</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.11812517668045</v>
+        <v>118.0087572028835</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311816</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.2564078639522</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978191</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867448</v>
+        <v>95.52244399867458</v>
       </c>
       <c r="T14" t="n">
-        <v>190.2526523501188</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694006</v>
+        <v>237.3298541694007</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>356.0657828889678</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924359</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>153.5815033091266</v>
       </c>
       <c r="D16" t="n">
-        <v>75.83525307473425</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.7686448570678</v>
+        <v>132.7686448570679</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7557302334299</v>
+        <v>131.75573023343</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.360490469527</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033673</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>223.6663598714482</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>38.81130843425147</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>38.81130843424731</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>38.81130843424683</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.81130843425099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1290004.295585456</v>
+        <v>1290004.295585457</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1290004.295585456</v>
+        <v>1290004.295585457</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1301334.313856494</v>
+        <v>1301334.313856495</v>
       </c>
     </row>
     <row r="14">
@@ -26320,10 +26320,10 @@
         <v>163855.2677434077</v>
       </c>
       <c r="E2" t="n">
-        <v>141225.9195966097</v>
+        <v>141225.9195966095</v>
       </c>
       <c r="F2" t="n">
-        <v>141225.9195966097</v>
+        <v>141225.9195966096</v>
       </c>
       <c r="G2" t="n">
         <v>163590.4779425834</v>
@@ -26332,19 +26332,19 @@
         <v>163590.4779425834</v>
       </c>
       <c r="I2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="J2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="K2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="L2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="J2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="K2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>164208.3539728566</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1134700.308569465</v>
+        <v>1134700.308569464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388621</v>
+        <v>71467.01119388669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.43670123289</v>
+        <v>2659.436701232557</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927959</v>
+        <v>12898.44302927956</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870684</v>
+        <v>29753.24015870722</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>22969.88759302221</v>
+        <v>22969.88759302215</v>
       </c>
       <c r="F4" t="n">
-        <v>22969.88759302221</v>
+        <v>22969.88759302216</v>
       </c>
       <c r="G4" t="n">
-        <v>78706.21105803625</v>
+        <v>78706.21105803645</v>
       </c>
       <c r="H4" t="n">
-        <v>78706.21105803625</v>
+        <v>78706.21105803642</v>
       </c>
       <c r="I4" t="n">
-        <v>79814.1766974662</v>
+        <v>79814.17669746626</v>
       </c>
       <c r="J4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="K4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120109</v>
       </c>
       <c r="L4" t="n">
+        <v>76652.56781120111</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76652.56781120108</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76652.56781120109</v>
+      </c>
+      <c r="O4" t="n">
+        <v>76652.56781120106</v>
+      </c>
+      <c r="P4" t="n">
         <v>76652.56781120102</v>
-      </c>
-      <c r="M4" t="n">
-        <v>76652.56781120104</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76652.56781120101</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76652.56781120098</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76652.56781120099</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.1701626389</v>
+        <v>75455.17016263885</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263888</v>
+        <v>75455.17016263885</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325587</v>
+        <v>86921.42030325596</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325587</v>
+        <v>86921.42030325596</v>
       </c>
       <c r="I5" t="n">
         <v>87529.4721360745</v>
@@ -26497,7 +26497,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480613</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289920.1011461236</v>
+        <v>-289924.5147239917</v>
       </c>
       <c r="C6" t="n">
-        <v>-289920.1011461236</v>
+        <v>-289924.5147239917</v>
       </c>
       <c r="D6" t="n">
-        <v>-289920.1011461236</v>
+        <v>-289924.5147239917</v>
       </c>
       <c r="E6" t="n">
-        <v>-1091899.446728516</v>
+        <v>-1092186.727158219</v>
       </c>
       <c r="F6" t="n">
-        <v>42800.86184094861</v>
+        <v>42513.58141124549</v>
       </c>
       <c r="G6" t="n">
-        <v>-73504.16461259495</v>
+        <v>-73511.88806297413</v>
       </c>
       <c r="H6" t="n">
-        <v>-2037.153418708767</v>
+        <v>-2044.876869087444</v>
       </c>
       <c r="I6" t="n">
-        <v>-5794.731561916939</v>
+        <v>-5794.731561916735</v>
       </c>
       <c r="J6" t="n">
-        <v>-14720.59854243003</v>
+        <v>-14720.59854243012</v>
       </c>
       <c r="K6" t="n">
-        <v>-1822.155513150443</v>
+        <v>-1822.155513150588</v>
       </c>
       <c r="L6" t="n">
-        <v>-39402.26480802456</v>
+        <v>-39402.26480802461</v>
       </c>
       <c r="M6" t="n">
         <v>-209010.7238052235</v>
       </c>
       <c r="N6" t="n">
+        <v>-1822.155513150559</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-31575.3956718577</v>
+      </c>
+      <c r="P6" t="n">
         <v>-1822.155513150385</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-31575.3956718572</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-1822.155513150428</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>955.037925471841</v>
+        <v>955.0379254718423</v>
       </c>
       <c r="H4" t="n">
-        <v>955.037925471841</v>
+        <v>955.0379254718423</v>
       </c>
       <c r="I4" t="n">
         <v>965.0387779853052</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695484</v>
+        <v>123.63647006955</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346411</v>
+        <v>10.00085251346286</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330949</v>
+        <v>49.29768322330938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695482</v>
+        <v>123.6364700695498</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695484</v>
+        <v>123.63647006955</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950135</v>
+        <v>13.66531778950128</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>31.43571863717366</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="O19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="P19" t="n">
-        <v>60.64045440809389</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.43571863717263</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>31.43571863717261</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.43571863717375</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="N22" t="n">
-        <v>60.64045440809389</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="P22" t="n">
-        <v>60.64045440809389</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>31.43571863717351</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,13 +29226,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="N25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="O25" t="n">
-        <v>31.43571863717284</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809389</v>
+        <v>60.64045440809387</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9751366185922</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859223</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256757</v>
+        <v>59.24373440256748</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7129773338209</v>
+        <v>219.7129773338208</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596995</v>
+        <v>333.4226899596994</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829852</v>
+        <v>361.2986971829851</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570414</v>
+        <v>358.5222639570413</v>
       </c>
       <c r="O13" t="n">
-        <v>316.0184480121411</v>
+        <v>316.018448012141</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346118</v>
+        <v>248.6223889346116</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.059556327395</v>
+        <v>92.05955632739492</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256757</v>
+        <v>59.24373440256748</v>
       </c>
       <c r="K16" t="n">
-        <v>219.7129773338209</v>
+        <v>219.7129773338208</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596995</v>
+        <v>333.4226899596994</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829852</v>
+        <v>361.2986971829851</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570414</v>
+        <v>358.5222639570413</v>
       </c>
       <c r="O16" t="n">
-        <v>316.0184480121411</v>
+        <v>316.018448012141</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346118</v>
+        <v>248.6223889346116</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.059556327395</v>
+        <v>92.05955632739492</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>657.645138729423</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>550.4754425293482</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>237.4833781814932</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,16 +36051,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>405.4974005756339</v>
       </c>
       <c r="O19" t="n">
-        <v>362.9935846307337</v>
+        <v>362.9935846307336</v>
       </c>
       <c r="P19" t="n">
-        <v>295.5975255532043</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>109.8299571750663</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>719.2158383933884</v>
+        <v>441.1844278605066</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>237.4833781814922</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>351.1930908073718</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>408.2738338015777</v>
       </c>
       <c r="N22" t="n">
-        <v>405.4974005756339</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>362.9935846307336</v>
       </c>
       <c r="P22" t="n">
-        <v>295.5975255532043</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>965.0387779853052</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>715.5967981103863</v>
       </c>
       <c r="Q23" t="n">
-        <v>288.1100253265764</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>77.0141352502397</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>405.4974005756339</v>
       </c>
       <c r="O25" t="n">
-        <v>333.7888488598126</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36610,7 +36610,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>527.426297583389</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>586.6502928476787</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>624.1930720027925</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>122.1333842488635</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>614.4119707098154</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779456</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768883</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165843</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>730.4252907588757</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>785.2736850426326</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165846</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,16 +37944,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237184</v>
       </c>
       <c r="K44" t="n">
-        <v>504.9282531982362</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
